--- a/etc/QuestionnaireStat.xlsx
+++ b/etc/QuestionnaireStat.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -196,8 +199,36 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,39 +503,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7:AS7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="41" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -825,166 +855,323 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>AVERAGE(A3:A4)</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:AS6" si="0">AVERAGE(B3:B4)</f>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N6" s="1">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" ref="A7:AS7" si="0">AVERAGE(A3:A5)</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AG6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AP6" s="1">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AQ6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AR6" s="1">
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AS6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/etc/QuestionnaireStat.xlsx
+++ b/etc/QuestionnaireStat.xlsx
@@ -503,38 +503,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -812,6 +819,33 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
       <c r="J4" s="1">
         <v>4</v>
       </c>
@@ -992,186 +1026,323 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" ref="A7:AS7" si="0">AVERAGE(A3:A5)</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>AVERAGE(A2:A6)</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:AS8" si="0">AVERAGE(B2:B6)</f>
+        <v>4.25</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM8" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="AN8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AO8" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="W7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA7" s="1">
+      <c r="AP8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="AS8" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AG7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AM7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AN7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AO7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AP7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AQ7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AR7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AS7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
       </c>
     </row>
   </sheetData>
